--- a/Documentation/meta.xlsx
+++ b/Documentation/meta.xlsx
@@ -1694,12 +1694,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1723,6 +1717,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2028,7 +2028,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,17 +2037,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2071,10 +2071,10 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2100,11 +2100,11 @@
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <v>21</v>
       </c>
-      <c r="I3" s="21">
-        <v>8</v>
+      <c r="I3" s="19">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2129,11 +2129,11 @@
       <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <v>22</v>
       </c>
-      <c r="I4" s="21">
-        <v>14</v>
+      <c r="I4" s="19">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2158,11 +2158,11 @@
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>21</v>
       </c>
-      <c r="I5" s="21">
-        <v>16</v>
+      <c r="I5" s="19">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,11 +2187,11 @@
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>22</v>
       </c>
-      <c r="I6" s="21">
-        <v>1</v>
+      <c r="I6" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2216,11 +2216,11 @@
       <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>20</v>
       </c>
-      <c r="I7" s="21">
-        <v>0</v>
+      <c r="I7" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2245,11 +2245,11 @@
       <c r="G8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>21</v>
       </c>
-      <c r="I8" s="21">
-        <v>9</v>
+      <c r="I8" s="19">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2274,11 +2274,11 @@
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <v>22</v>
       </c>
-      <c r="I9" s="21">
-        <v>15</v>
+      <c r="I9" s="19">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2303,11 +2303,11 @@
       <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>23</v>
       </c>
-      <c r="I10" s="21">
-        <v>13</v>
+      <c r="I10" s="19">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2332,11 +2332,11 @@
       <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <v>24</v>
       </c>
-      <c r="I11" s="21">
-        <v>6</v>
+      <c r="I11" s="19">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2361,11 +2361,11 @@
       <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <v>24</v>
       </c>
-      <c r="I12" s="21">
-        <v>7</v>
+      <c r="I12" s="19">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2390,11 +2390,11 @@
       <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="18">
         <v>24</v>
       </c>
-      <c r="I13" s="21">
-        <v>11</v>
+      <c r="I13" s="19">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2419,11 +2419,11 @@
       <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <v>22</v>
       </c>
-      <c r="I14" s="21">
-        <v>12</v>
+      <c r="I14" s="19">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2448,11 +2448,11 @@
       <c r="G15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <v>20</v>
       </c>
-      <c r="I15" s="21">
-        <v>13</v>
+      <c r="I15" s="19">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2477,11 +2477,11 @@
       <c r="G16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="18">
         <v>22</v>
       </c>
-      <c r="I16" s="21">
-        <v>10</v>
+      <c r="I16" s="19">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2506,11 +2506,11 @@
       <c r="G17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="18">
         <v>23</v>
       </c>
-      <c r="I17" s="21">
-        <v>17</v>
+      <c r="I17" s="19">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2535,11 +2535,11 @@
       <c r="G18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="18">
         <v>23</v>
       </c>
-      <c r="I18" s="21">
-        <v>8</v>
+      <c r="I18" s="19">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,11 +2564,11 @@
       <c r="G19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="18">
         <v>24</v>
       </c>
-      <c r="I19" s="21">
-        <v>2</v>
+      <c r="I19" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2593,11 +2593,11 @@
       <c r="G20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="18">
         <v>20</v>
       </c>
-      <c r="I20" s="21">
-        <v>10</v>
+      <c r="I20" s="19">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2622,11 +2622,11 @@
       <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="18">
         <v>21</v>
       </c>
-      <c r="I21" s="21">
-        <v>4</v>
+      <c r="I21" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2651,11 +2651,11 @@
       <c r="G22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="18">
         <v>21</v>
       </c>
-      <c r="I22" s="21">
-        <v>3</v>
+      <c r="I22" s="19">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -2680,11 +2680,11 @@
       <c r="G23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="18">
         <v>22</v>
       </c>
-      <c r="I23" s="21">
-        <v>0</v>
+      <c r="I23" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -2709,11 +2709,11 @@
       <c r="G24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="18">
         <v>24</v>
       </c>
-      <c r="I24" s="21">
-        <v>4</v>
+      <c r="I24" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -2738,11 +2738,11 @@
       <c r="G25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="18">
         <v>23</v>
       </c>
-      <c r="I25" s="21">
-        <v>4</v>
+      <c r="I25" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -2767,11 +2767,11 @@
       <c r="G26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="18">
         <v>24</v>
       </c>
-      <c r="I26" s="21">
-        <v>16</v>
+      <c r="I26" s="19">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -2796,11 +2796,11 @@
       <c r="G27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="18">
         <v>22</v>
       </c>
-      <c r="I27" s="21">
-        <v>2</v>
+      <c r="I27" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -2825,11 +2825,11 @@
       <c r="G28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="18">
         <v>20</v>
       </c>
-      <c r="I28" s="21">
-        <v>13</v>
+      <c r="I28" s="19">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2854,11 +2854,11 @@
       <c r="G29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="18">
         <v>21</v>
       </c>
-      <c r="I29" s="21">
-        <v>12</v>
+      <c r="I29" s="19">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2883,11 +2883,11 @@
       <c r="G30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="18">
         <v>23</v>
       </c>
-      <c r="I30" s="21">
-        <v>2</v>
+      <c r="I30" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2912,11 +2912,11 @@
       <c r="G31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>20</v>
       </c>
-      <c r="I31" s="21">
-        <v>1</v>
+      <c r="I31" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2941,11 +2941,11 @@
       <c r="G32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <v>20</v>
       </c>
-      <c r="I32" s="21">
-        <v>15</v>
+      <c r="I32" s="19">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -2970,11 +2970,11 @@
       <c r="G33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="18">
         <v>24</v>
       </c>
-      <c r="I33" s="21">
-        <v>3</v>
+      <c r="I33" s="19">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,11 +2999,11 @@
       <c r="G34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="18">
         <v>24</v>
       </c>
-      <c r="I34" s="21">
-        <v>3</v>
+      <c r="I34" s="19">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3028,11 +3028,11 @@
       <c r="G35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>23</v>
       </c>
-      <c r="I35" s="21">
-        <v>13</v>
+      <c r="I35" s="19">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3057,11 +3057,11 @@
       <c r="G36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="18">
         <v>24</v>
       </c>
-      <c r="I36" s="21">
-        <v>3</v>
+      <c r="I36" s="19">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3086,11 +3086,11 @@
       <c r="G37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>21</v>
       </c>
-      <c r="I37" s="21">
-        <v>4</v>
+      <c r="I37" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3115,11 +3115,11 @@
       <c r="G38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="18">
         <v>23</v>
       </c>
-      <c r="I38" s="21">
-        <v>16</v>
+      <c r="I38" s="19">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3144,11 +3144,11 @@
       <c r="G39" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="18">
         <v>22</v>
       </c>
-      <c r="I39" s="21">
-        <v>6</v>
+      <c r="I39" s="19">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3173,11 +3173,11 @@
       <c r="G40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="18">
         <v>22</v>
       </c>
-      <c r="I40" s="21">
-        <v>15</v>
+      <c r="I40" s="19">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3202,11 +3202,11 @@
       <c r="G41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="18">
         <v>23</v>
       </c>
-      <c r="I41" s="21">
-        <v>8</v>
+      <c r="I41" s="19">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3231,11 +3231,11 @@
       <c r="G42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="18">
         <v>23</v>
       </c>
-      <c r="I42" s="21">
-        <v>16</v>
+      <c r="I42" s="19">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3260,11 +3260,11 @@
       <c r="G43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="18">
         <v>21</v>
       </c>
-      <c r="I43" s="21">
-        <v>5</v>
+      <c r="I43" s="19">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3289,11 +3289,11 @@
       <c r="G44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="18">
         <v>21</v>
       </c>
-      <c r="I44" s="21">
-        <v>10</v>
+      <c r="I44" s="19">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3318,11 +3318,11 @@
       <c r="G45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="18">
         <v>20</v>
       </c>
-      <c r="I45" s="21">
-        <v>6</v>
+      <c r="I45" s="19">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3347,11 +3347,11 @@
       <c r="G46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <v>24</v>
       </c>
-      <c r="I46" s="21">
-        <v>0</v>
+      <c r="I46" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3376,11 +3376,11 @@
       <c r="G47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="18">
         <v>24</v>
       </c>
-      <c r="I47" s="21">
-        <v>0</v>
+      <c r="I47" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3405,11 +3405,11 @@
       <c r="G48" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="18">
         <v>24</v>
       </c>
-      <c r="I48" s="21">
-        <v>14</v>
+      <c r="I48" s="19">
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3434,11 +3434,11 @@
       <c r="G49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="18">
         <v>23</v>
       </c>
-      <c r="I49" s="21">
-        <v>17</v>
+      <c r="I49" s="19">
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3463,11 +3463,11 @@
       <c r="G50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="18">
         <v>20</v>
       </c>
-      <c r="I50" s="21">
-        <v>7</v>
+      <c r="I50" s="19">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3492,11 +3492,11 @@
       <c r="G51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="18">
         <v>23</v>
       </c>
-      <c r="I51" s="21">
-        <v>18</v>
+      <c r="I51" s="19">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3521,11 +3521,11 @@
       <c r="G52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="18">
         <v>23</v>
       </c>
-      <c r="I52" s="21">
-        <v>0</v>
+      <c r="I52" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3550,11 +3550,11 @@
       <c r="G53" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="18">
         <v>20</v>
       </c>
-      <c r="I53" s="21">
-        <v>0</v>
+      <c r="I53" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3579,11 +3579,11 @@
       <c r="G54" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="18">
         <v>22</v>
       </c>
-      <c r="I54" s="21">
-        <v>6</v>
+      <c r="I54" s="19">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3608,11 +3608,11 @@
       <c r="G55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="18">
         <v>22</v>
       </c>
-      <c r="I55" s="21">
-        <v>5</v>
+      <c r="I55" s="19">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3637,11 +3637,11 @@
       <c r="G56" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="18">
         <v>20</v>
       </c>
-      <c r="I56" s="21">
-        <v>14</v>
+      <c r="I56" s="19">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3666,11 +3666,11 @@
       <c r="G57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="18">
         <v>24</v>
       </c>
-      <c r="I57" s="21">
-        <v>10</v>
+      <c r="I57" s="19">
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3695,11 +3695,11 @@
       <c r="G58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="18">
         <v>24</v>
       </c>
-      <c r="I58" s="21">
-        <v>8</v>
+      <c r="I58" s="19">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3724,11 +3724,11 @@
       <c r="G59" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="18">
         <v>20</v>
       </c>
-      <c r="I59" s="21">
-        <v>0</v>
+      <c r="I59" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,11 +3753,11 @@
       <c r="G60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="18">
         <v>23</v>
       </c>
-      <c r="I60" s="21">
-        <v>5</v>
+      <c r="I60" s="19">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3782,11 +3782,11 @@
       <c r="G61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="18">
         <v>23</v>
       </c>
-      <c r="I61" s="21">
-        <v>16</v>
+      <c r="I61" s="19">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3811,11 +3811,11 @@
       <c r="G62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="18">
         <v>22</v>
       </c>
-      <c r="I62" s="21">
-        <v>17</v>
+      <c r="I62" s="19">
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3840,11 +3840,11 @@
       <c r="G63" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="18">
         <v>24</v>
       </c>
-      <c r="I63" s="21">
-        <v>17</v>
+      <c r="I63" s="19">
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3869,11 +3869,11 @@
       <c r="G64" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="18">
         <v>23</v>
       </c>
-      <c r="I64" s="21">
-        <v>3</v>
+      <c r="I64" s="19">
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3898,11 +3898,11 @@
       <c r="G65" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="18">
         <v>21</v>
       </c>
-      <c r="I65" s="21">
-        <v>8</v>
+      <c r="I65" s="19">
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3927,11 +3927,11 @@
       <c r="G66" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="18">
         <v>21</v>
       </c>
-      <c r="I66" s="21">
-        <v>11</v>
+      <c r="I66" s="19">
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3956,11 +3956,11 @@
       <c r="G67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="18">
         <v>20</v>
       </c>
-      <c r="I67" s="21">
-        <v>5</v>
+      <c r="I67" s="19">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -3985,11 +3985,11 @@
       <c r="G68" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="18">
         <v>20</v>
       </c>
-      <c r="I68" s="21">
-        <v>13</v>
+      <c r="I68" s="19">
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -4014,11 +4014,11 @@
       <c r="G69" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="18">
         <v>23</v>
       </c>
-      <c r="I69" s="21">
-        <v>2</v>
+      <c r="I69" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -4043,11 +4043,11 @@
       <c r="G70" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="18">
         <v>20</v>
       </c>
-      <c r="I70" s="21">
-        <v>1</v>
+      <c r="I70" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -4072,11 +4072,11 @@
       <c r="G71" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="18">
         <v>23</v>
       </c>
-      <c r="I71" s="21">
-        <v>18</v>
+      <c r="I71" s="19">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -4101,11 +4101,11 @@
       <c r="G72" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="18">
         <v>23</v>
       </c>
-      <c r="I72" s="21">
-        <v>18</v>
+      <c r="I72" s="19">
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -4130,11 +4130,11 @@
       <c r="G73" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="18">
         <v>21</v>
       </c>
-      <c r="I73" s="21">
-        <v>14</v>
+      <c r="I73" s="19">
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4159,11 +4159,11 @@
       <c r="G74" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="18">
         <v>22</v>
       </c>
-      <c r="I74" s="21">
-        <v>1</v>
+      <c r="I74" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4188,11 +4188,11 @@
       <c r="G75" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="18">
         <v>21</v>
       </c>
-      <c r="I75" s="21">
-        <v>11</v>
+      <c r="I75" s="19">
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4217,11 +4217,11 @@
       <c r="G76" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H76" s="18">
         <v>21</v>
       </c>
-      <c r="I76" s="21">
-        <v>6</v>
+      <c r="I76" s="19">
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4246,11 +4246,11 @@
       <c r="G77" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="18">
         <v>24</v>
       </c>
-      <c r="I77" s="21">
-        <v>9</v>
+      <c r="I77" s="19">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4266,7 +4266,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,553 +4279,553 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <v>9876543210</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>18</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <v>8765432109</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>7654321098</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>12</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>6543210987</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>5432109876</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>14</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>4321098765</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>9</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="13">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>3210987654</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>2109876543</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <v>1098765432</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>13</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>987654321</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>9876543210</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>8765432109</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>15</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>7654321098</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>2</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <v>6543210987</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>11</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <v>5432109876</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <v>5</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>4321098765</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>3210987654</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="A19" s="13">
         <v>10</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <v>2109876543</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="14" t="s">
         <v>201</v>
       </c>
     </row>
